--- a/donation.xlsx
+++ b/donation.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Documents\GitHub\PhysWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B722F787-4BAD-4D3D-96E0-739796FC3EB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18143" windowHeight="9098" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>支付宝</t>
   </si>
@@ -99,6 +100,15 @@
   </si>
   <si>
     <t>新*</t>
+  </si>
+  <si>
+    <t>康*</t>
+  </si>
+  <si>
+    <t>沛*</t>
+  </si>
+  <si>
+    <t>肖</t>
   </si>
 </sst>
 </file>
@@ -447,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -477,7 +487,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>666.66</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -786,6 +796,48 @@
       </c>
       <c r="D23">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>133.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>43179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/donation.xlsx
+++ b/donation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Documents\GitHub\PhysWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B722F787-4BAD-4D3D-96E0-739796FC3EB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AC6DA-B328-46C8-81A4-84A1790FFC47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18143" windowHeight="9098" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>支付宝</t>
   </si>
@@ -109,6 +109,48 @@
   </si>
   <si>
     <t>肖</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>l*</t>
+  </si>
+  <si>
+    <t>M*</t>
+  </si>
+  <si>
+    <t>张*</t>
+  </si>
+  <si>
+    <t>炜*</t>
+  </si>
+  <si>
+    <t>砚*</t>
+  </si>
+  <si>
+    <t>热*</t>
+  </si>
+  <si>
+    <t>浩*</t>
+  </si>
+  <si>
+    <t>冕*</t>
+  </si>
+  <si>
+    <t>岩*</t>
+  </si>
+  <si>
+    <t>俊*</t>
+  </si>
+  <si>
+    <t>喆*</t>
+  </si>
+  <si>
+    <t>飞*</t>
   </si>
 </sst>
 </file>
@@ -457,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -487,7 +529,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>901</v>
+        <v>1328.5800000000002</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -838,6 +880,202 @@
       </c>
       <c r="D26">
         <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>43196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>43198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>43198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>43199</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>43204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>43205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>43209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>43213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>43214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>43216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
